--- a/xlsx/aerob-run-1mile.xlsx
+++ b/xlsx/aerob-run-1mile.xlsx
@@ -58,7 +58,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1536,7 +1576,7 @@
         <v>12.58</v>
       </c>
       <c r="S18" s="1">
-        <v>13.35</v>
+        <v>13.3</v>
       </c>
       <c r="T18" s="1">
         <v>14.38</v>
@@ -1598,7 +1638,7 @@
         <v>12.52</v>
       </c>
       <c r="S19" s="1">
-        <v>13.3</v>
+        <v>13.22</v>
       </c>
       <c r="T19" s="1">
         <v>14.31</v>
@@ -1660,7 +1700,7 @@
         <v>12.47</v>
       </c>
       <c r="S20" s="1">
-        <v>13.27</v>
+        <v>13.13</v>
       </c>
       <c r="T20" s="1">
         <v>14.25</v>
@@ -1722,7 +1762,7 @@
         <v>12.42</v>
       </c>
       <c r="S21" s="1">
-        <v>13.23</v>
+        <v>13.05</v>
       </c>
       <c r="T21" s="1">
         <v>14.18</v>
@@ -1784,7 +1824,7 @@
         <v>12.37</v>
       </c>
       <c r="S22" s="1">
-        <v>13.18</v>
+        <v>12.58</v>
       </c>
       <c r="T22" s="1">
         <v>14.15</v>
@@ -1846,7 +1886,7 @@
         <v>12.32</v>
       </c>
       <c r="S23" s="1">
-        <v>13.13</v>
+        <v>12.52</v>
       </c>
       <c r="T23" s="1">
         <v>14.12</v>
@@ -1908,7 +1948,7 @@
         <v>12.27</v>
       </c>
       <c r="S24" s="1">
-        <v>13.08</v>
+        <v>12.45</v>
       </c>
       <c r="T24" s="1">
         <v>14.03</v>
@@ -1970,7 +2010,7 @@
         <v>12.23</v>
       </c>
       <c r="S25" s="1">
-        <v>13.03</v>
+        <v>12.37</v>
       </c>
       <c r="T25" s="1">
         <v>13.53</v>
@@ -2032,7 +2072,7 @@
         <v>12.18</v>
       </c>
       <c r="S26" s="1">
-        <v>12.58</v>
+        <v>12.32</v>
       </c>
       <c r="T26" s="1">
         <v>13.47</v>
@@ -2094,7 +2134,7 @@
         <v>12.13</v>
       </c>
       <c r="S27" s="1">
-        <v>12.52</v>
+        <v>12.27</v>
       </c>
       <c r="T27" s="1">
         <v>13.42</v>
@@ -2156,7 +2196,7 @@
         <v>12.09</v>
       </c>
       <c r="S28" s="1">
-        <v>12.45</v>
+        <v>12.23</v>
       </c>
       <c r="T28" s="1">
         <v>13.36</v>
@@ -2218,7 +2258,7 @@
         <v>12.04</v>
       </c>
       <c r="S29" s="1">
-        <v>12.37</v>
+        <v>12.18</v>
       </c>
       <c r="T29" s="1">
         <v>13.3</v>
@@ -2280,7 +2320,7 @@
         <v>11.57</v>
       </c>
       <c r="S30" s="1">
-        <v>12.32</v>
+        <v>12.13</v>
       </c>
       <c r="T30" s="1">
         <v>13.25</v>
@@ -2342,7 +2382,7 @@
         <v>11.51</v>
       </c>
       <c r="S31" s="1">
-        <v>12.27</v>
+        <v>12.09</v>
       </c>
       <c r="T31" s="1">
         <v>13.19</v>
@@ -2404,7 +2444,7 @@
         <v>11.44</v>
       </c>
       <c r="S32" s="1">
-        <v>12.23</v>
+        <v>12.04</v>
       </c>
       <c r="T32" s="1">
         <v>13.13</v>
@@ -2466,7 +2506,7 @@
         <v>11.38</v>
       </c>
       <c r="S33" s="1">
-        <v>12.18</v>
+        <v>12</v>
       </c>
       <c r="T33" s="1">
         <v>13.11</v>
@@ -2528,7 +2568,7 @@
         <v>11.34</v>
       </c>
       <c r="S34" s="1">
-        <v>12.13</v>
+        <v>11.55</v>
       </c>
       <c r="T34" s="1">
         <v>13.08</v>
@@ -2590,7 +2630,7 @@
         <v>11.3</v>
       </c>
       <c r="S35" s="1">
-        <v>12.09</v>
+        <v>11.51</v>
       </c>
       <c r="T35" s="1">
         <v>13.03</v>
@@ -2652,7 +2692,7 @@
         <v>11.25</v>
       </c>
       <c r="S36" s="1">
-        <v>12.04</v>
+        <v>11.46</v>
       </c>
       <c r="T36" s="1">
         <v>12.58</v>
@@ -2714,7 +2754,7 @@
         <v>11.21</v>
       </c>
       <c r="S37" s="1">
-        <v>12</v>
+        <v>11.42</v>
       </c>
       <c r="T37" s="1">
         <v>12.52</v>
@@ -2776,7 +2816,7 @@
         <v>11.17</v>
       </c>
       <c r="S38" s="1">
-        <v>11.55</v>
+        <v>11.36</v>
       </c>
       <c r="T38" s="1">
         <v>12.47</v>
@@ -2838,7 +2878,7 @@
         <v>11.14</v>
       </c>
       <c r="S39" s="1">
-        <v>11.51</v>
+        <v>11.3</v>
       </c>
       <c r="T39" s="1">
         <v>12.42</v>
@@ -2900,7 +2940,7 @@
         <v>11.1</v>
       </c>
       <c r="S40" s="1">
-        <v>11.46</v>
+        <v>11.28</v>
       </c>
       <c r="T40" s="1">
         <v>12.37</v>
@@ -2962,7 +3002,7 @@
         <v>11.06</v>
       </c>
       <c r="S41" s="1">
-        <v>11.42</v>
+        <v>11.21</v>
       </c>
       <c r="T41" s="1">
         <v>12.32</v>
@@ -3024,7 +3064,7 @@
         <v>11.02</v>
       </c>
       <c r="S42" s="1">
-        <v>11.36</v>
+        <v>11.17</v>
       </c>
       <c r="T42" s="1">
         <v>12.3</v>
@@ -3086,7 +3126,7 @@
         <v>10.56</v>
       </c>
       <c r="S43" s="1">
-        <v>11.3</v>
+        <v>11.14</v>
       </c>
       <c r="T43" s="1">
         <v>12.23</v>
@@ -3148,7 +3188,7 @@
         <v>10.51</v>
       </c>
       <c r="S44" s="1">
-        <v>11.28</v>
+        <v>11.1</v>
       </c>
       <c r="T44" s="1">
         <v>12.18</v>
@@ -3210,7 +3250,7 @@
         <v>10.47</v>
       </c>
       <c r="S45" s="1">
-        <v>11.21</v>
+        <v>11.06</v>
       </c>
       <c r="T45" s="1">
         <v>12.13</v>
@@ -3272,7 +3312,7 @@
         <v>10.44</v>
       </c>
       <c r="S46" s="1">
-        <v>11.17</v>
+        <v>11.02</v>
       </c>
       <c r="T46" s="1">
         <v>12.09</v>
@@ -3334,7 +3374,7 @@
         <v>10.4</v>
       </c>
       <c r="S47" s="1">
-        <v>11.14</v>
+        <v>10.56</v>
       </c>
       <c r="T47" s="1">
         <v>12.04</v>
@@ -3396,7 +3436,7 @@
         <v>10.35</v>
       </c>
       <c r="S48" s="1">
-        <v>11.1</v>
+        <v>10.51</v>
       </c>
       <c r="T48" s="1">
         <v>12</v>
@@ -3419,7 +3459,7 @@
         <v>8.26</v>
       </c>
       <c r="F49" s="1">
-        <v>8.23</v>
+        <v>8.19</v>
       </c>
       <c r="G49" s="1">
         <v>8.19</v>
@@ -3458,7 +3498,7 @@
         <v>10.3</v>
       </c>
       <c r="S49" s="1">
-        <v>11.06</v>
+        <v>10.47</v>
       </c>
       <c r="T49" s="1">
         <v>11.55</v>
@@ -3520,7 +3560,7 @@
         <v>10.26</v>
       </c>
       <c r="S50" s="1">
-        <v>11.02</v>
+        <v>10.44</v>
       </c>
       <c r="T50" s="1">
         <v>11.51</v>
@@ -3582,7 +3622,7 @@
         <v>10.23</v>
       </c>
       <c r="S51" s="1">
-        <v>10.56</v>
+        <v>10.4</v>
       </c>
       <c r="T51" s="1">
         <v>11.46</v>
@@ -3644,7 +3684,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="S52" s="1">
-        <v>10.51</v>
+        <v>10.35</v>
       </c>
       <c r="T52" s="1">
         <v>11.42</v>
@@ -3706,7 +3746,7 @@
         <v>10.16</v>
       </c>
       <c r="S53" s="1">
-        <v>10.47</v>
+        <v>10.3</v>
       </c>
       <c r="T53" s="1">
         <v>11.38</v>
@@ -3768,7 +3808,7 @@
         <v>10.130000000000001</v>
       </c>
       <c r="S54" s="1">
-        <v>10.44</v>
+        <v>10.26</v>
       </c>
       <c r="T54" s="1">
         <v>11.34</v>
@@ -3830,7 +3870,7 @@
         <v>10.1</v>
       </c>
       <c r="S55" s="1">
-        <v>10.4</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="T55" s="1">
         <v>11.3</v>
@@ -3892,7 +3932,7 @@
         <v>10.07</v>
       </c>
       <c r="S56" s="1">
-        <v>10.35</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="T56" s="1">
         <v>11.25</v>
@@ -3954,7 +3994,7 @@
         <v>10.029999999999999</v>
       </c>
       <c r="S57" s="1">
-        <v>10.3</v>
+        <v>10.18</v>
       </c>
       <c r="T57" s="1">
         <v>11.21</v>
@@ -4016,7 +4056,7 @@
         <v>10</v>
       </c>
       <c r="S58" s="1">
-        <v>10.26</v>
+        <v>10.16</v>
       </c>
       <c r="T58" s="1">
         <v>11.17</v>
@@ -4078,7 +4118,7 @@
         <v>9.57</v>
       </c>
       <c r="S59" s="1">
-        <v>10.23</v>
+        <v>10.14</v>
       </c>
       <c r="T59" s="1">
         <v>11.14</v>
@@ -4140,7 +4180,7 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="S60" s="1">
-        <v>10.18</v>
+        <v>10.11</v>
       </c>
       <c r="T60" s="1">
         <v>11.1</v>
@@ -4202,7 +4242,7 @@
         <v>9.51</v>
       </c>
       <c r="S61" s="1">
-        <v>10.130000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="T61" s="1">
         <v>11.06</v>
@@ -4264,7 +4304,7 @@
         <v>9.48</v>
       </c>
       <c r="S62" s="1">
-        <v>10.1</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="T62" s="1">
         <v>11.02</v>
@@ -4326,7 +4366,7 @@
         <v>9.44</v>
       </c>
       <c r="S63" s="1">
-        <v>10.050000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="T63" s="1">
         <v>10.56</v>
@@ -4388,7 +4428,7 @@
         <v>9.39</v>
       </c>
       <c r="S64" s="1">
-        <v>10</v>
+        <v>9.59</v>
       </c>
       <c r="T64" s="1">
         <v>10.51</v>
@@ -4399,7 +4439,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>7.45</v>
+        <v>7.43</v>
       </c>
       <c r="C65" s="1">
         <v>7.36</v>
@@ -6185,14 +6225,19 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B59:T77 B2:R58 T2:T58 S2:S57">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:T21 B22:R78 T22:T78 S59:S78 S23:S57">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThanOrEqual">
+      <formula>B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S58">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
-      <formula>#REF!</formula>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+      <formula>S55</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6494,7 +6539,7 @@
         <v>10.130000000000001</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="M5" s="1">
         <v>9.5399999999999991</v>
@@ -6556,7 +6601,7 @@
         <v>10.07</v>
       </c>
       <c r="L6" s="1">
-        <v>9.84</v>
+        <v>9.57</v>
       </c>
       <c r="M6" s="1">
         <v>9.48</v>
@@ -6618,7 +6663,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="1">
-        <v>9.76</v>
+        <v>9.51</v>
       </c>
       <c r="M7" s="1">
         <v>9.42</v>
@@ -6674,7 +6719,7 @@
         <v>10.23</v>
       </c>
       <c r="J8" s="1">
-        <v>9.84</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="K8" s="1">
         <v>9.5399999999999991</v>
@@ -6736,7 +6781,7 @@
         <v>10.16</v>
       </c>
       <c r="J9" s="1">
-        <v>9.76</v>
+        <v>9.57</v>
       </c>
       <c r="K9" s="1">
         <v>9.48</v>
@@ -7873,7 +7918,7 @@
         <v>8.56</v>
       </c>
       <c r="Q27" s="1">
-        <v>9.16</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="R27" s="1">
         <v>9.36</v>
@@ -7935,7 +7980,7 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="Q28" s="1">
-        <v>9.1199999999999992</v>
+        <v>9.08</v>
       </c>
       <c r="R28" s="1">
         <v>9.32</v>
@@ -7997,7 +8042,7 @@
         <v>8.49</v>
       </c>
       <c r="Q29" s="1">
-        <v>9.08</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="R29" s="1">
         <v>9.2799999999999994</v>
@@ -8059,7 +8104,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="Q30" s="1">
-        <v>9.0399999999999991</v>
+        <v>9</v>
       </c>
       <c r="R30" s="1">
         <v>9.24</v>
@@ -8121,7 +8166,7 @@
         <v>8.42</v>
       </c>
       <c r="Q31" s="1">
-        <v>9</v>
+        <v>8.56</v>
       </c>
       <c r="R31" s="1">
         <v>9.1999999999999993</v>
@@ -8183,7 +8228,7 @@
         <v>8.39</v>
       </c>
       <c r="Q32" s="1">
-        <v>8.56</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="R32" s="1">
         <v>9.16</v>
@@ -8245,10 +8290,10 @@
         <v>8.3699999999999992</v>
       </c>
       <c r="Q33" s="1">
-        <v>8.5299999999999994</v>
+        <v>8.49</v>
       </c>
       <c r="R33" s="1">
-        <v>9.16</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="S33" s="1">
         <v>9.59</v>
@@ -8307,10 +8352,10 @@
         <v>8.35</v>
       </c>
       <c r="Q34" s="1">
-        <v>8.49</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="R34" s="1">
-        <v>9.1199999999999992</v>
+        <v>9.08</v>
       </c>
       <c r="S34" s="1">
         <v>9.5399999999999991</v>
@@ -8369,10 +8414,10 @@
         <v>8.33</v>
       </c>
       <c r="Q35" s="1">
-        <v>8.4499999999999993</v>
+        <v>8.42</v>
       </c>
       <c r="R35" s="1">
-        <v>9.08</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="S35" s="1">
         <v>9.51</v>
@@ -8431,10 +8476,10 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="Q36" s="1">
-        <v>8.42</v>
+        <v>8.39</v>
       </c>
       <c r="R36" s="1">
-        <v>9.0399999999999991</v>
+        <v>9</v>
       </c>
       <c r="S36" s="1">
         <v>9.48</v>
@@ -8493,10 +8538,10 @@
         <v>8.26</v>
       </c>
       <c r="Q37" s="1">
-        <v>8.39</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="R37" s="1">
-        <v>9</v>
+        <v>8.56</v>
       </c>
       <c r="S37" s="1">
         <v>9.4499999999999993</v>
@@ -8555,10 +8600,10 @@
         <v>8.24</v>
       </c>
       <c r="Q38" s="1">
-        <v>8.3699999999999992</v>
+        <v>8.35</v>
       </c>
       <c r="R38" s="1">
-        <v>8.56</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="S38" s="1">
         <v>9.41</v>
@@ -8617,10 +8662,10 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="Q39" s="1">
-        <v>8.35</v>
+        <v>8.33</v>
       </c>
       <c r="R39" s="1">
-        <v>8.5299999999999994</v>
+        <v>8.49</v>
       </c>
       <c r="S39" s="1">
         <v>9.34</v>
@@ -8679,10 +8724,10 @@
         <v>8.17</v>
       </c>
       <c r="Q40" s="1">
-        <v>8.33</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="R40" s="1">
-        <v>8.49</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="S40" s="1">
         <v>9.31</v>
@@ -8741,10 +8786,10 @@
         <v>8.15</v>
       </c>
       <c r="Q41" s="1">
-        <v>8.2899999999999991</v>
+        <v>8.26</v>
       </c>
       <c r="R41" s="1">
-        <v>8.4499999999999993</v>
+        <v>8.42</v>
       </c>
       <c r="S41" s="1">
         <v>9.2200000000000006</v>
@@ -8803,10 +8848,10 @@
         <v>8.09</v>
       </c>
       <c r="Q42" s="1">
-        <v>8.26</v>
+        <v>8.24</v>
       </c>
       <c r="R42" s="1">
-        <v>8.42</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="S42" s="1">
         <v>9.18</v>
@@ -8865,10 +8910,10 @@
         <v>8.06</v>
       </c>
       <c r="Q43" s="1">
-        <v>8.24</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R43" s="1">
-        <v>8.3800000000000008</v>
+        <v>8.35</v>
       </c>
       <c r="S43" s="1">
         <v>9.14</v>
@@ -8927,10 +8972,10 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="Q44" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.17</v>
       </c>
       <c r="R44" s="1">
-        <v>8.35</v>
+        <v>8.31</v>
       </c>
       <c r="S44" s="1">
         <v>9.1199999999999992</v>
@@ -8989,10 +9034,10 @@
         <v>8</v>
       </c>
       <c r="Q45" s="1">
-        <v>8.17</v>
+        <v>8.14</v>
       </c>
       <c r="R45" s="1">
-        <v>8.31</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="S45" s="1">
         <v>9.08</v>
@@ -9051,10 +9096,10 @@
         <v>7.57</v>
       </c>
       <c r="Q46" s="1">
-        <v>8.14</v>
+        <v>8.11</v>
       </c>
       <c r="R46" s="1">
-        <v>8.2799999999999994</v>
+        <v>8.26</v>
       </c>
       <c r="S46" s="1">
         <v>9.0399999999999991</v>
@@ -9113,10 +9158,10 @@
         <v>7.54</v>
       </c>
       <c r="Q47" s="1">
-        <v>8.11</v>
+        <v>8.09</v>
       </c>
       <c r="R47" s="1">
-        <v>8.26</v>
+        <v>8.24</v>
       </c>
       <c r="S47" s="1">
         <v>9</v>
@@ -9175,10 +9220,10 @@
         <v>7.51</v>
       </c>
       <c r="Q48" s="1">
-        <v>8.09</v>
+        <v>8.07</v>
       </c>
       <c r="R48" s="1">
-        <v>8.24</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="S48" s="1">
         <v>8.56</v>
@@ -9237,10 +9282,10 @@
         <v>7.49</v>
       </c>
       <c r="Q49" s="1">
-        <v>8.07</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="R49" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.17</v>
       </c>
       <c r="S49" s="1">
         <v>8.5299999999999994</v>
@@ -9299,10 +9344,10 @@
         <v>7.46</v>
       </c>
       <c r="Q50" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="R50" s="1">
-        <v>8.17</v>
+        <v>8.14</v>
       </c>
       <c r="S50" s="1">
         <v>8.49</v>
@@ -9361,10 +9406,10 @@
         <v>7.43</v>
       </c>
       <c r="Q51" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.01</v>
       </c>
       <c r="R51" s="1">
-        <v>8.14</v>
+        <v>8.11</v>
       </c>
       <c r="S51" s="1">
         <v>8.4700000000000006</v>
@@ -9423,10 +9468,10 @@
         <v>7.42</v>
       </c>
       <c r="Q52" s="1">
-        <v>8.01</v>
+        <v>7.59</v>
       </c>
       <c r="R52" s="1">
-        <v>8.11</v>
+        <v>8.09</v>
       </c>
       <c r="S52" s="1">
         <v>8.43</v>
@@ -9485,10 +9530,10 @@
         <v>7.4</v>
       </c>
       <c r="Q53" s="1">
-        <v>7.59</v>
+        <v>7.57</v>
       </c>
       <c r="R53" s="1">
-        <v>8.09</v>
+        <v>8.07</v>
       </c>
       <c r="S53" s="1">
         <v>8.39</v>
@@ -9547,10 +9592,10 @@
         <v>7.38</v>
       </c>
       <c r="Q54" s="1">
-        <v>7.57</v>
+        <v>7.56</v>
       </c>
       <c r="R54" s="1">
-        <v>8.07</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="S54" s="1">
         <v>8.3699999999999992</v>
@@ -9609,10 +9654,10 @@
         <v>7.36</v>
       </c>
       <c r="Q55" s="1">
-        <v>7.56</v>
+        <v>7.53</v>
       </c>
       <c r="R55" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="S55" s="1">
         <v>8.35</v>
@@ -9671,10 +9716,10 @@
         <v>7.32</v>
       </c>
       <c r="Q56" s="1">
-        <v>7.53</v>
+        <v>7.5</v>
       </c>
       <c r="R56" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.01</v>
       </c>
       <c r="S56" s="1">
         <v>8.31</v>
@@ -9733,10 +9778,10 @@
         <v>7.29</v>
       </c>
       <c r="Q57" s="1">
-        <v>7.5</v>
+        <v>7.47</v>
       </c>
       <c r="R57" s="1">
-        <v>8.01</v>
+        <v>7.59</v>
       </c>
       <c r="S57" s="1">
         <v>8.2799999999999994</v>
@@ -9795,10 +9840,10 @@
         <v>7.27</v>
       </c>
       <c r="Q58" s="1">
-        <v>7.47</v>
+        <v>7.44</v>
       </c>
       <c r="R58" s="1">
-        <v>7.59</v>
+        <v>7.57</v>
       </c>
       <c r="S58" s="1">
         <v>8.26</v>
@@ -9857,10 +9902,10 @@
         <v>7.26</v>
       </c>
       <c r="Q59" s="1">
-        <v>7.44</v>
+        <v>7.42</v>
       </c>
       <c r="R59" s="1">
-        <v>7.57</v>
+        <v>7.56</v>
       </c>
       <c r="S59" s="1">
         <v>8.24</v>
@@ -9919,10 +9964,10 @@
         <v>7.23</v>
       </c>
       <c r="Q60" s="1">
-        <v>7.42</v>
+        <v>7.39</v>
       </c>
       <c r="R60" s="1">
-        <v>7.56</v>
+        <v>7.53</v>
       </c>
       <c r="S60" s="1">
         <v>8.1999999999999993</v>
@@ -9981,10 +10026,10 @@
         <v>7.2</v>
       </c>
       <c r="Q61" s="1">
-        <v>7.39</v>
+        <v>7.36</v>
       </c>
       <c r="R61" s="1">
-        <v>7.53</v>
+        <v>7.5</v>
       </c>
       <c r="S61" s="1">
         <v>8.17</v>
@@ -10043,10 +10088,10 @@
         <v>7.18</v>
       </c>
       <c r="Q62" s="1">
-        <v>7.36</v>
+        <v>7.34</v>
       </c>
       <c r="R62" s="1">
-        <v>7.5</v>
+        <v>7.47</v>
       </c>
       <c r="S62" s="1">
         <v>8.14</v>
@@ -10105,10 +10150,10 @@
         <v>7.16</v>
       </c>
       <c r="Q63" s="1">
-        <v>7.33</v>
+        <v>7.32</v>
       </c>
       <c r="R63" s="1">
-        <v>7.47</v>
+        <v>7.44</v>
       </c>
       <c r="S63" s="1">
         <v>8.11</v>
@@ -10167,10 +10212,10 @@
         <v>7.14</v>
       </c>
       <c r="Q64" s="1">
-        <v>7.28</v>
+        <v>7.3</v>
       </c>
       <c r="R64" s="1">
-        <v>7.44</v>
+        <v>7.42</v>
       </c>
       <c r="S64" s="1">
         <v>8.08</v>
@@ -10229,10 +10274,10 @@
         <v>7.12</v>
       </c>
       <c r="Q65" s="1">
-        <v>7.26</v>
+        <v>7.28</v>
       </c>
       <c r="R65" s="1">
-        <v>7.42</v>
+        <v>7.39</v>
       </c>
       <c r="S65" s="1">
         <v>8.0500000000000007</v>
@@ -10291,10 +10336,10 @@
         <v>7.11</v>
       </c>
       <c r="Q66" s="1">
-        <v>7.25</v>
+        <v>7.27</v>
       </c>
       <c r="R66" s="1">
-        <v>7.39</v>
+        <v>7.36</v>
       </c>
       <c r="S66" s="1">
         <v>8.0299999999999994</v>
@@ -10353,10 +10398,10 @@
         <v>7.09</v>
       </c>
       <c r="Q67" s="1">
-        <v>7.24</v>
+        <v>7.26</v>
       </c>
       <c r="R67" s="1">
-        <v>7.36</v>
+        <v>7.34</v>
       </c>
       <c r="S67" s="1">
         <v>8</v>
@@ -10415,10 +10460,10 @@
         <v>7.07</v>
       </c>
       <c r="Q68" s="1">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
       <c r="R68" s="1">
-        <v>7.32</v>
+        <v>7.33</v>
       </c>
       <c r="S68" s="1">
         <v>7.57</v>
@@ -11970,9 +12015,19 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:T77">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:T25 B26:P78 R26:T31 Q64:Q78 Q27:Q62 S32:T78 R69:R78 R33:R67">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
+      <formula>B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26 R32">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q63 R68">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThanOrEqual">
+      <formula>Q61</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
